--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_376.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_376.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32780-d78639-Reviews-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Holiday-Inn-Express-Newport-Beach.h910990.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_376.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,426 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r584380753-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32780</t>
+  </si>
+  <si>
+    <t>78639</t>
+  </si>
+  <si>
+    <t>584380753</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Lion Materials LLC</t>
+  </si>
+  <si>
+    <t>Over all great services ..The room was very comfortable and all employees were very pleasant and accomidating .Great resturant opened next door ... Go see Joe!!!  He is the manager..  @ Rocks.Bar and Grill..</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r582439037-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>582439037</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Friendly, clean and an upgrade!!!</t>
+  </si>
+  <si>
+    <t>Hubs and I checked in and were delighted to be offer an upgrade to a roomy suite, with a huge TV, because of my gold IHG status. Very comfortable, could enjoy the TV from sofa or bed.  Wonderful breakfast, overseen and prepared by Lorena. Tempted to try the inviting- looking gym, but not yet! Desk clerk could not have been nicer, reccommending a friendly neighborhood Italian restaurant, which we could walk to, and had delicious pizza.All good!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r582254622-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>582254622</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Great vacation at HIE.</t>
+  </si>
+  <si>
+    <t>I had a bad experience at Holiday In in San Diego CA last month, they were NOT friendly at all. So, I went back to San Diego this month again and stayed at the Holiday Inn Express, where they were very professional and friendly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r576596575-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>576596575</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>First time at this property</t>
+  </si>
+  <si>
+    <t>I have been an elite IHG member for several years now. I've stayed at my share of Holiday Inn Express products across the country. The front desk staff were very kind and professional. The rooms were standard issue and did not stick out in anyway other than being unnaturally humid when the A/C was not on. Since I live in Florida it's really hard to get me to notice humidity, and I grew up in Newport Beach so I was on familiar ground. The breakfast offering was limited and I've been to plenty of Express properties with more extensive offerings. Overall it was ho-hum. Nothing wonderful but nothing overtly offensive either..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded May 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2018</t>
+  </si>
+  <si>
+    <t>I have been an elite IHG member for several years now. I've stayed at my share of Holiday Inn Express products across the country. The front desk staff were very kind and professional. The rooms were standard issue and did not stick out in anyway other than being unnaturally humid when the A/C was not on. Since I live in Florida it's really hard to get me to notice humidity, and I grew up in Newport Beach so I was on familiar ground. The breakfast offering was limited and I've been to plenty of Express properties with more extensive offerings. Overall it was ho-hum. Nothing wonderful but nothing overtly offensive either..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r575502472-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>575502472</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>Had a great stay at the Holiday Inn Express - amazing price and location. The gym was really good for a H.I (cables and free weights alongside usual cardio) Special shout out to the team behind the desk, very friendly and approachable. Kenzie in particular was incredibly helpful and patient with me when helping with a couple of payment issues. They also helped me understand how to do laundry in the US. Cheers guys, will definitely come back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r574051610-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>574051610</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>CalAct 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Place to stay and work! I would recommend this place to anyone...Price was just right restaurant served the freshest foods and the service was excellent. Room service was on time and service was great </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r573855848-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>573855848</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel, Great Location</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful. The location of the Hotel is perfect for a visit to Newport Beach and the rates were very reasonable. The breakfast options were excellent and the staff in the breakfast area were helpful and very friendly. The wifi is not secure. No password is required to login, so plan on using a VPN service if you plan to use the wifi. The Hotel charges for parking which was a disappointment. The room was in good condition but not great which is why I only give it 4 stars. For example, the shower curtain was torn at both ends and looked pretty bad. This would seem to be a cheap and easy thing to fix. There were some stray hairs left from the previous guest in the tub and on the toilet which was pretty unpleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful. The location of the Hotel is perfect for a visit to Newport Beach and the rates were very reasonable. The breakfast options were excellent and the staff in the breakfast area were helpful and very friendly. The wifi is not secure. No password is required to login, so plan on using a VPN service if you plan to use the wifi. The Hotel charges for parking which was a disappointment. The room was in good condition but not great which is why I only give it 4 stars. For example, the shower curtain was torn at both ends and looked pretty bad. This would seem to be a cheap and easy thing to fix. There were some stray hairs left from the previous guest in the tub and on the toilet which was pretty unpleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r572678740-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>572678740</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Beware they charge an extra $15 a night for parking. Something that was not advertised when making the reservation. Ridiculous as there is plenty of parking available. If I am paying for a room at a motel parking should included. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Beware they charge an extra $15 a night for parking. Something that was not advertised when making the reservation. Ridiculous as there is plenty of parking available. If I am paying for a room at a motel parking should included. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r571710617-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>571710617</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Excellent Service &amp; Cleanliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent service from Arturo at the front desk &amp; Petra from housekeeping. Also breakfast service was great, but I didn’t get her name. Rooms were nice &amp; lobby area very clean. If we visit Newport again, will definitely book here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r570897321-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>570897321</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Newport Beach Weekend</t>
+  </si>
+  <si>
+    <t>The bed was comfortable, but the vent in the bathroom was filthy dirty.  The noise was horrible Saturday evening long into the 3:00 AM hours.   The front desk people were very nice, breakfast was good and we had clean towels every day.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>The bed was comfortable, but the vent in the bathroom was filthy dirty.  The noise was horrible Saturday evening long into the 3:00 AM hours.   The front desk people were very nice, breakfast was good and we had clean towels every day.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r570736589-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>570736589</t>
+  </si>
+  <si>
+    <t>Holiday Inn Newport Beach</t>
+  </si>
+  <si>
+    <t>What a beautiful place to stay.  They had remodeled the lobby and breakfast area with a more contemporary vibe.  Very nice! Front desk personnel very friendly and helpful. Will definitely stay there again when we are back in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r568723161-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>568723161</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Great stay with excellent customer service</t>
+  </si>
+  <si>
+    <t>Had a lovely 2 night stay in March. Arrived early evening and easy check in, close to all facilities and opposite the marina, lovely clean rooms, customer service excellent, spacious rooms, good facilities and beds very comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r566389429-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>566389429</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>What You Expect</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights for a wedding nearby. The room smelled a little bit when we got there but it wasn't so bad to switch. I had booked a king bed but all they had were 2 double beds, not a huge deal. Nice new lobby and breakfast included (although the breakfast was pretty sub par). Pool was alright but a lot of kids which I would expect at a Holiday Inn Express. Good location of PCH, short drive or a 15-20 minute walk to Newport Beach.  Didn't know parking was $15 a night until I got there either. Good restaurants nearby as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights for a wedding nearby. The room smelled a little bit when we got there but it wasn't so bad to switch. I had booked a king bed but all they had were 2 double beds, not a huge deal. Nice new lobby and breakfast included (although the breakfast was pretty sub par). Pool was alright but a lot of kids which I would expect at a Holiday Inn Express. Good location of PCH, short drive or a 15-20 minute walk to Newport Beach.  Didn't know parking was $15 a night until I got there either. Good restaurants nearby as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r566350682-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>566350682</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>I expected much less. Being from Las Vegas, other cities just don't have hotels that match up to my expectations. This place proved me wrong. Its look and amenities felt like a boutique 4 star hotel. It was one of the best parts of the trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r566350075-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>566350075</t>
+  </si>
+  <si>
+    <t>Beautiful View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved the hotel. It had a great location with a beautiful bay view. Breakfast varied each morning and it was always hot and delicious. Room was very spacious and the bed was rather comfortable. I would definitely stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r562347119-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>562347119</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Great stay!  Friendly and helpful staff!</t>
+  </si>
+  <si>
+    <t>What a great stay!  The front desk staff was very helpful.  I didn't have a car and I told the girl at the front desk that I needed a cab for the next day at 8:30am.  She said that they work with a company and the cab was there next day ready and waiting for me.  Hotel was very personable and it was a great stay and a great room.  My room was amazing as it was a 2 room suite.  Only issue that happened was the power went out one night and according to some locals, it happens a lot in that area of Newport Beach.  Having a 2 room suite, I had 2 bathrooms.  The ADA bathroom was nice and big with a tall toilet, but the shower was horrible...no pressure at all.  The regular bathroom, the toilet was low, but the shower pressure was great.  Breakfast was satisfactory, stay was very comfortable, and the staff was a great help.  Can't beat that!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>What a great stay!  The front desk staff was very helpful.  I didn't have a car and I told the girl at the front desk that I needed a cab for the next day at 8:30am.  She said that they work with a company and the cab was there next day ready and waiting for me.  Hotel was very personable and it was a great stay and a great room.  My room was amazing as it was a 2 room suite.  Only issue that happened was the power went out one night and according to some locals, it happens a lot in that area of Newport Beach.  Having a 2 room suite, I had 2 bathrooms.  The ADA bathroom was nice and big with a tall toilet, but the shower was horrible...no pressure at all.  The regular bathroom, the toilet was low, but the shower pressure was great.  Breakfast was satisfactory, stay was very comfortable, and the staff was a great help.  Can't beat that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r561616226-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>561616226</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Rather deceptive.</t>
+  </si>
+  <si>
+    <t>Ok the rooms are small. It was the most uncomfortable bed I have ever slept in a hotel room.Period. They are way high and sink you in a deep crevice that is very hard to roll out of.When I booked online, I booked for a "bay view" room. What I got was parking lot view. I asked the front desk guy, his answer was "we try to accommodate as much as we can". I made the booking about a month in advance.when I booked I specifically looked to see if they charge for parking. There was nothing to that effect. When I check in, they had a rubber stamp on the sign up paper that they were going to charge 15 dollars per night. They don't tell you that upfront but mention in small (i mean very small) letter in the confirmation, AFTER YOU HAVE MADE THE RESERVATION.The elevators are in the middle of a whole bunch of rooms like ours, and it is hell noisy through out the night.Would not recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Ok the rooms are small. It was the most uncomfortable bed I have ever slept in a hotel room.Period. They are way high and sink you in a deep crevice that is very hard to roll out of.When I booked online, I booked for a "bay view" room. What I got was parking lot view. I asked the front desk guy, his answer was "we try to accommodate as much as we can". I made the booking about a month in advance.when I booked I specifically looked to see if they charge for parking. There was nothing to that effect. When I check in, they had a rubber stamp on the sign up paper that they were going to charge 15 dollars per night. They don't tell you that upfront but mention in small (i mean very small) letter in the confirmation, AFTER YOU HAVE MADE THE RESERVATION.The elevators are in the middle of a whole bunch of rooms like ours, and it is hell noisy through out the night.Would not recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r556571193-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>556571193</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Perfect getaway</t>
+  </si>
+  <si>
+    <t>Wanted to get away and spend some quality time with my mom.  She loved it and I did too. We both were sad to leave and we live close.  Super helpful and friendly staff. Nice selection for breakfast. Super close to the beach(quick drive or 10 min walk)  and lots of restaurants.  Easy drive to Fashion Island or hikes st Back Bay and easy parking.  Will definitely stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r555482717-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>555482717</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Met our needs</t>
+  </si>
+  <si>
+    <t>Chose the Holiday Inn because my wife and I were spending the day in Newport and wanted a place nearby to spend the night.  Knowing we weren't going to spend much time in the room, we didn't want to spend a bunch of money.  Most hotels in the area are greatly overpriced.  The Holiday Inn was reasonably priced given it did include breakfast.  However, we did find out at check in that they charge for parking, which for an unsecured ground floor parking lot is just irritating.  The good news is they don't charge a ridiculous parking fee like you will find around Fashion Island.  As for the hotel it was clean and well kept.  We were on the first floor and it did get a bit noisy from the restaurant next door, but after a while it quieted down.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Chose the Holiday Inn because my wife and I were spending the day in Newport and wanted a place nearby to spend the night.  Knowing we weren't going to spend much time in the room, we didn't want to spend a bunch of money.  Most hotels in the area are greatly overpriced.  The Holiday Inn was reasonably priced given it did include breakfast.  However, we did find out at check in that they charge for parking, which for an unsecured ground floor parking lot is just irritating.  The good news is they don't charge a ridiculous parking fee like you will find around Fashion Island.  As for the hotel it was clean and well kept.  We were on the first floor and it did get a bit noisy from the restaurant next door, but after a while it quieted down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r544704092-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>544704092</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Relaxing stay</t>
+  </si>
+  <si>
+    <t>We were in town to see friends and just spend time relaxing.  The location is great with many restaurants just a short walk and a short drive to beach’s and shopping.  Our room was quiet, comfortable, clean and well priced for the area.  This will be on our stops in the future.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r543063588-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>543063588</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Regular small Holiday Inn</t>
+  </si>
+  <si>
+    <t>Ok, I choose this hotel because it had free parking, which was true. Very limited space though. When I stayed there were going some renovations and room had a strange smell, like chemicals. Room was a good size but furniture felt old. Overall didn't experienced any problem but the lack of space in the breakfast room one of the days...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Ok, I choose this hotel because it had free parking, which was true. Very limited space though. When I stayed there were going some renovations and room had a strange smell, like chemicals. Room was a good size but furniture felt old. Overall didn't experienced any problem but the lack of space in the breakfast room one of the days...More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1068,1269 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>130</v>
+      </c>
+      <c r="X14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>153</v>
+      </c>
+      <c r="X18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>166</v>
+      </c>
+      <c r="X20" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_376.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>rjscarpa67</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>mawrtermom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r582439037-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>U6802EDdannyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r582254622-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Michael T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r576596575-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>I have been an elite IHG member for several years now. I've stayed at my share of Holiday Inn Express products across the country. The front desk staff were very kind and professional. The rooms were standard issue and did not stick out in anyway other than being unnaturally humid when the A/C was not on. Since I live in Florida it's really hard to get me to notice humidity, and I grew up in Newport Beach so I was on familiar ground. The breakfast offering was limited and I've been to plenty of Express properties with more extensive offerings. Overall it was ho-hum. Nothing wonderful but nothing overtly offensive either..More</t>
   </si>
   <si>
+    <t>TimpanzeeUK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r575502472-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>Had a great stay at the Holiday Inn Express - amazing price and location. The gym was really good for a H.I (cables and free weights alongside usual cardio) Special shout out to the team behind the desk, very friendly and approachable. Kenzie in particular was incredibly helpful and patient with me when helping with a couple of payment issues. They also helped me understand how to do laundry in the US. Cheers guys, will definitely come back!</t>
   </si>
   <si>
+    <t>artissmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r574051610-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t xml:space="preserve">Excellent Place to stay and work! I would recommend this place to anyone...Price was just right restaurant served the freshest foods and the service was excellent. Room service was on time and service was great </t>
   </si>
   <si>
+    <t>Jaye M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r573855848-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>The staff was very friendly and helpful. The location of the Hotel is perfect for a visit to Newport Beach and the rates were very reasonable. The breakfast options were excellent and the staff in the breakfast area were helpful and very friendly. The wifi is not secure. No password is required to login, so plan on using a VPN service if you plan to use the wifi. The Hotel charges for parking which was a disappointment. The room was in good condition but not great which is why I only give it 4 stars. For example, the shower curtain was torn at both ends and looked pretty bad. This would seem to be a cheap and easy thing to fix. There were some stray hairs left from the previous guest in the tub and on the toilet which was pretty unpleasant.More</t>
   </si>
   <si>
+    <t>mikewilliswoodwo2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r572678740-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>Beware they charge an extra $15 a night for parking. Something that was not advertised when making the reservation. Ridiculous as there is plenty of parking available. If I am paying for a room at a motel parking should included. More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r571710617-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -336,6 +363,9 @@
     <t xml:space="preserve">Excellent service from Arturo at the front desk &amp; Petra from housekeeping. Also breakfast service was great, but I didn’t get her name. Rooms were nice &amp; lobby area very clean. If we visit Newport again, will definitely book here. </t>
   </si>
   <si>
+    <t>scottm2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r570897321-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>The bed was comfortable, but the vent in the bathroom was filthy dirty.  The noise was horrible Saturday evening long into the 3:00 AM hours.   The front desk people were very nice, breakfast was good and we had clean towels every day.  More</t>
   </si>
   <si>
+    <t>dkupitz2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r570736589-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>What a beautiful place to stay.  They had remodeled the lobby and breakfast area with a more contemporary vibe.  Very nice! Front desk personnel very friendly and helpful. Will definitely stay there again when we are back in the area.</t>
   </si>
   <si>
+    <t>BMLIreland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r568723161-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t>Had a lovely 2 night stay in March. Arrived early evening and easy check in, close to all facilities and opposite the marina, lovely clean rooms, customer service excellent, spacious rooms, good facilities and beds very comfortable.</t>
   </si>
   <si>
+    <t>joelgoods</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r566389429-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>Stayed for 3 nights for a wedding nearby. The room smelled a little bit when we got there but it wasn't so bad to switch. I had booked a king bed but all they had were 2 double beds, not a huge deal. Nice new lobby and breakfast included (although the breakfast was pretty sub par). Pool was alright but a lot of kids which I would expect at a Holiday Inn Express. Good location of PCH, short drive or a 15-20 minute walk to Newport Beach.  Didn't know parking was $15 a night until I got there either. Good restaurants nearby as well. More</t>
   </si>
   <si>
+    <t>ryandanks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r566350682-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
     <t>I expected much less. Being from Las Vegas, other cities just don't have hotels that match up to my expectations. This place proved me wrong. Its look and amenities felt like a boutique 4 star hotel. It was one of the best parts of the trip.</t>
   </si>
   <si>
+    <t>AMH36703</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r566350075-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -441,6 +486,9 @@
     <t xml:space="preserve">I loved the hotel. It had a great location with a beautiful bay view. Breakfast varied each morning and it was always hot and delicious. Room was very spacious and the bed was rather comfortable. I would definitely stay here again. </t>
   </si>
   <si>
+    <t>jbrenz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r562347119-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -462,6 +510,9 @@
     <t>What a great stay!  The front desk staff was very helpful.  I didn't have a car and I told the girl at the front desk that I needed a cab for the next day at 8:30am.  She said that they work with a company and the cab was there next day ready and waiting for me.  Hotel was very personable and it was a great stay and a great room.  My room was amazing as it was a 2 room suite.  Only issue that happened was the power went out one night and according to some locals, it happens a lot in that area of Newport Beach.  Having a 2 room suite, I had 2 bathrooms.  The ADA bathroom was nice and big with a tall toilet, but the shower was horrible...no pressure at all.  The regular bathroom, the toilet was low, but the shower pressure was great.  Breakfast was satisfactory, stay was very comfortable, and the staff was a great help.  Can't beat that!More</t>
   </si>
   <si>
+    <t>farrier126</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r561616226-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -486,6 +537,9 @@
     <t>Ok the rooms are small. It was the most uncomfortable bed I have ever slept in a hotel room.Period. They are way high and sink you in a deep crevice that is very hard to roll out of.When I booked online, I booked for a "bay view" room. What I got was parking lot view. I asked the front desk guy, his answer was "we try to accommodate as much as we can". I made the booking about a month in advance.when I booked I specifically looked to see if they charge for parking. There was nothing to that effect. When I check in, they had a rubber stamp on the sign up paper that they were going to charge 15 dollars per night. They don't tell you that upfront but mention in small (i mean very small) letter in the confirmation, AFTER YOU HAVE MADE THE RESERVATION.The elevators are in the middle of a whole bunch of rooms like ours, and it is hell noisy through out the night.Would not recommend it.More</t>
   </si>
   <si>
+    <t>Tanya L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r556571193-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -501,6 +555,9 @@
     <t>Wanted to get away and spend some quality time with my mom.  She loved it and I did too. We both were sad to leave and we live close.  Super helpful and friendly staff. Nice selection for breakfast. Super close to the beach(quick drive or 10 min walk)  and lots of restaurants.  Easy drive to Fashion Island or hikes st Back Bay and easy parking.  Will definitely stay again.</t>
   </si>
   <si>
+    <t>doggystravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r555482717-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -525,6 +582,9 @@
     <t>Chose the Holiday Inn because my wife and I were spending the day in Newport and wanted a place nearby to spend the night.  Knowing we weren't going to spend much time in the room, we didn't want to spend a bunch of money.  Most hotels in the area are greatly overpriced.  The Holiday Inn was reasonably priced given it did include breakfast.  However, we did find out at check in that they charge for parking, which for an unsecured ground floor parking lot is just irritating.  The good news is they don't charge a ridiculous parking fee like you will find around Fashion Island.  As for the hotel it was clean and well kept.  We were on the first floor and it did get a bit noisy from the restaurant next door, but after a while it quieted down.More</t>
   </si>
   <si>
+    <t>eddo1955</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r544704092-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -541,6 +601,9 @@
   </si>
   <si>
     <t>December 2017</t>
+  </si>
+  <si>
+    <t>Blur_78</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r543063588-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
@@ -1072,43 +1135,47 @@
       <c r="A2" t="n">
         <v>32174</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>192602</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1122,50 +1189,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32174</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>192603</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1183,50 +1254,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32174</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>192604</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1240,50 +1315,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32174</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>14469</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1301,56 +1380,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32174</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>192605</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1364,50 +1447,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32174</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>192606</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1421,50 +1508,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32174</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>192607</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1478,50 +1569,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32174</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>192608</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1533,56 +1628,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="X9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32174</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1596,50 +1695,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32174</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>192609</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1651,56 +1754,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32174</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>192610</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1714,50 +1821,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32174</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>192611</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1775,50 +1886,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32174</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>192612</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1830,56 +1945,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="X14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32174</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>192613</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1893,50 +2012,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32174</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>192614</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1950,50 +2073,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32174</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>192615</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2013,50 +2140,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32174</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>192616</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2074,56 +2205,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="X18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32174</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>101441</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2137,50 +2272,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32174</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>66421</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2198,56 +2337,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="X20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32174</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>192617</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2261,50 +2404,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32174</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>192618</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2322,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="X22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_376.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t>STR#</t>
   </si>
@@ -150,42 +150,528 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>rjscarpa67</t>
-  </si>
-  <si>
-    <t>07/04/2018</t>
+    <t>09/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r616020348-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32780</t>
+  </si>
+  <si>
+    <t>78639</t>
+  </si>
+  <si>
+    <t>616020348</t>
+  </si>
+  <si>
+    <t>09/12/2018</t>
+  </si>
+  <si>
+    <t>Great Location, Nice Rooms and Nice People</t>
+  </si>
+  <si>
+    <t>Was able to spend a few days at the beach and chose the HI Express Newport Beach due to its location. Rooms are fine and the people were great, helpful, and friendly. The easy morning breakfast was a great bargain and made starting the day so much nicer. If you are going to be in the Laguna Beach area this is a great place to stay.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r600899854-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>600899854</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Our Favorite Place to Stay</t>
+  </si>
+  <si>
+    <t>We have stayed at the Holiday Inn Express in Newport Beach every summer for the past seven or eight years.  It's convenient, well-located, and offers everything we could want.  The staff is extremely friendly and helpful, really going the extra mile to make a stay satisfying.  On our last trip in July, both Arturo and Tatiana were warm and welcoming, even offering to carry our bags.  They readily agreed to split our bill four ways, something many hotels refuse to do.
+The rooms are comfortable with the best mattresses every.  I can count on a good night's sleep with every stay.  The setting is quiet in spite of being located right on the Pacific Coast Highway.  Rooms are equipped with coffee makers and refrigerators which are handy for picnics and trips to the beach.  Plenty of room and storage add to the room's appeal.
+Free breakfast is always a plus, and the breakfast room is roomy with plenty of room for guests.  The food selection is great, with hot dishes (egg, bacon, sausage, gravy) and well as the usual elements of a continental breakfast.  Items are quickly replenished and the serving area is immaculate.  A server is on hand who immediately clears used dishes and cheerfully supplies requested items.  The service was better than a lot of restaurants.
+The location couldn't be better.  The Pacific Coast Highway provides access to all the great beaches and coastal towns nearby:  Corona Del...We have stayed at the Holiday Inn Express in Newport Beach every summer for the past seven or eight years.  It's convenient, well-located, and offers everything we could want.  The staff is extremely friendly and helpful, really going the extra mile to make a stay satisfying.  On our last trip in July, both Arturo and Tatiana were warm and welcoming, even offering to carry our bags.  They readily agreed to split our bill four ways, something many hotels refuse to do.The rooms are comfortable with the best mattresses every.  I can count on a good night's sleep with every stay.  The setting is quiet in spite of being located right on the Pacific Coast Highway.  Rooms are equipped with coffee makers and refrigerators which are handy for picnics and trips to the beach.  Plenty of room and storage add to the room's appeal.Free breakfast is always a plus, and the breakfast room is roomy with plenty of room for guests.  The food selection is great, with hot dishes (egg, bacon, sausage, gravy) and well as the usual elements of a continental breakfast.  Items are quickly replenished and the serving area is immaculate.  A server is on hand who immediately clears used dishes and cheerfully supplies requested items.  The service was better than a lot of restaurants.The location couldn't be better.  The Pacific Coast Highway provides access to all the great beaches and coastal towns nearby:  Corona Del Mar, Laguna Beach, and the towns to the north.  Several restaurants are within walking distance, and an easy drive takes you to your desired destination.Great job to all staff.  Obviously a well-managed property.  My home on the Southern California coast.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded July 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2018</t>
+  </si>
+  <si>
+    <t>We have stayed at the Holiday Inn Express in Newport Beach every summer for the past seven or eight years.  It's convenient, well-located, and offers everything we could want.  The staff is extremely friendly and helpful, really going the extra mile to make a stay satisfying.  On our last trip in July, both Arturo and Tatiana were warm and welcoming, even offering to carry our bags.  They readily agreed to split our bill four ways, something many hotels refuse to do.
+The rooms are comfortable with the best mattresses every.  I can count on a good night's sleep with every stay.  The setting is quiet in spite of being located right on the Pacific Coast Highway.  Rooms are equipped with coffee makers and refrigerators which are handy for picnics and trips to the beach.  Plenty of room and storage add to the room's appeal.
+Free breakfast is always a plus, and the breakfast room is roomy with plenty of room for guests.  The food selection is great, with hot dishes (egg, bacon, sausage, gravy) and well as the usual elements of a continental breakfast.  Items are quickly replenished and the serving area is immaculate.  A server is on hand who immediately clears used dishes and cheerfully supplies requested items.  The service was better than a lot of restaurants.
+The location couldn't be better.  The Pacific Coast Highway provides access to all the great beaches and coastal towns nearby:  Corona Del...We have stayed at the Holiday Inn Express in Newport Beach every summer for the past seven or eight years.  It's convenient, well-located, and offers everything we could want.  The staff is extremely friendly and helpful, really going the extra mile to make a stay satisfying.  On our last trip in July, both Arturo and Tatiana were warm and welcoming, even offering to carry our bags.  They readily agreed to split our bill four ways, something many hotels refuse to do.The rooms are comfortable with the best mattresses every.  I can count on a good night's sleep with every stay.  The setting is quiet in spite of being located right on the Pacific Coast Highway.  Rooms are equipped with coffee makers and refrigerators which are handy for picnics and trips to the beach.  Plenty of room and storage add to the room's appeal.Free breakfast is always a plus, and the breakfast room is roomy with plenty of room for guests.  The food selection is great, with hot dishes (egg, bacon, sausage, gravy) and well as the usual elements of a continental breakfast.  Items are quickly replenished and the serving area is immaculate.  A server is on hand who immediately clears used dishes and cheerfully supplies requested items.  The service was better than a lot of restaurants.The location couldn't be better.  The Pacific Coast Highway provides access to all the great beaches and coastal towns nearby:  Corona Del Mar, Laguna Beach, and the towns to the north.  Several restaurants are within walking distance, and an easy drive takes you to your desired destination.Great job to all staff.  Obviously a well-managed property.  My home on the Southern California coast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r615788956-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>615788956</t>
+  </si>
+  <si>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Disappointing this time. Bathroom wasn’t cleaned very well. I stay at this motel frequently and have never been disappointed in the past. Also, the room did not have a do not disturb sign to place outside the door.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded yesterday</t>
+  </si>
+  <si>
+    <t>Responded yesterday</t>
+  </si>
+  <si>
+    <t>Disappointing this time. Bathroom wasn’t cleaned very well. I stay at this motel frequently and have never been disappointed in the past. Also, the room did not have a do not disturb sign to place outside the door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r615577935-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>615577935</t>
+  </si>
+  <si>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Overall a very nice hotel. Room was clean, convenient location-walking distance to the pier. Issue with parking space, one night we had to park on the street due to no available space ( I guess people visiting bar next door parked on hotel property). Our parking fee was waived though.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded 2 days ago</t>
+  </si>
+  <si>
+    <t>Responded 2 days ago</t>
+  </si>
+  <si>
+    <t>Overall a very nice hotel. Room was clean, convenient location-walking distance to the pier. Issue with parking space, one night we had to park on the street due to no available space ( I guess people visiting bar next door parked on hotel property). Our parking fee was waived though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r615572199-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>615572199</t>
+  </si>
+  <si>
+    <t>Bring back the original cinnamen roll</t>
+  </si>
+  <si>
+    <t>Love this location! Close to Newport Beach. The breakfast is always great. Best gravy! I have to say I miss the old cinnamon rolls. I can get Cinnabon at the mall. There was no other place than the Holiday Inn Express to get the original flakey cinnamon roll. I would stay just for that reason. Please consider bringing that back when this contract is over. MoreShow less</t>
+  </si>
+  <si>
+    <t>Love this location! Close to Newport Beach. The breakfast is always great. Best gravy! I have to say I miss the old cinnamon rolls. I can get Cinnabon at the mall. There was no other place than the Holiday Inn Express to get the original flakey cinnamon roll. I would stay just for that reason. Please consider bringing that back when this contract is over. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r615387843-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>615387843</t>
+  </si>
+  <si>
+    <t>Value Thumbs Up- Simple, functional, great service, good location</t>
+  </si>
+  <si>
+    <t>Me, my wife and son stayed two nights at the Holiday Inn Express Newport Beach in July of 2018.  We had business in Irvine and pleasure on the beach so the Goldie Locks location was excellent.  The hotel is situated on Pacific Coast Highway (right where it splits into West Coast Highway) about two miles from the Newport Beach proper and maybe 15 minutes from John Wayne airport in Irvine.  It is in a light commercial area with several restaurants nearby, along with some shops, boat sales/service shops, and car dealerships (ahhhh.... Newport).  It is directly across the highway from an inlet of Newport Bay, but to get to the beach there is no crow-fly route.  If you like to walk, it's not bad, but not terribly scenic along the highway and part of the inlet.  The hotel itself is a low, two-story hotel with windows overlooking parking, regardless of room location so don't expect a view.   The exterior is unassuming, including points if entry/exit.  There is nothing luxurious or grandiose to wow you, but the exterior and simple grounds are well-maintained.  Once inside, everything is nice- contemporary furnishings in clean, comfortable spaces that work.  After a travel mess, we arrived after midnight and the front-desk attendant could not have been more helpful or pleasant.  We were in our room quickly and not long after, crashed in very comfortable beds with high-quality pillows/linens.  The room was a bit dated, but...Me, my wife and son stayed two nights at the Holiday Inn Express Newport Beach in July of 2018.  We had business in Irvine and pleasure on the beach so the Goldie Locks location was excellent.  The hotel is situated on Pacific Coast Highway (right where it splits into West Coast Highway) about two miles from the Newport Beach proper and maybe 15 minutes from John Wayne airport in Irvine.  It is in a light commercial area with several restaurants nearby, along with some shops, boat sales/service shops, and car dealerships (ahhhh.... Newport).  It is directly across the highway from an inlet of Newport Bay, but to get to the beach there is no crow-fly route.  If you like to walk, it's not bad, but not terribly scenic along the highway and part of the inlet.  The hotel itself is a low, two-story hotel with windows overlooking parking, regardless of room location so don't expect a view.   The exterior is unassuming, including points if entry/exit.  There is nothing luxurious or grandiose to wow you, but the exterior and simple grounds are well-maintained.  Once inside, everything is nice- contemporary furnishings in clean, comfortable spaces that work.  After a travel mess, we arrived after midnight and the front-desk attendant could not have been more helpful or pleasant.  We were in our room quickly and not long after, crashed in very comfortable beds with high-quality pillows/linens.  The room was a bit dated, but not bad.  Nothing looked worn and all spaces/furnishings were clean and everything worked.  We were far from the highway (about as far as one can get) so the room was quiet as well.  Breakfast was included with our room/deal and was actually pretty good.  Fresh foods were fresh, prepared foods were, well- prepared!  Selections were mostly formulaic, but solid.  Food staff were exceptionally efficient, professional and polite as was the new, daytime front desk attendant.  She was friendly and offered great local insight/advice for me and my son to play for the day while my wife worked (hah!).  The aforementioned parking was ample (a bonus in Newport).  Regardless of time we returned to the hotel, there were always good-sized available spaces.  Bottom line, temper your "Newport Beach expectations."  The hotel is not glitzy, glossy or sexy, nor does it tout itself as such. Close enough to the beach to be convenient, but far enough away to be affordable. It was clean, felt safe, with exceptionally professional staff. Great experience. Great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>Me, my wife and son stayed two nights at the Holiday Inn Express Newport Beach in July of 2018.  We had business in Irvine and pleasure on the beach so the Goldie Locks location was excellent.  The hotel is situated on Pacific Coast Highway (right where it splits into West Coast Highway) about two miles from the Newport Beach proper and maybe 15 minutes from John Wayne airport in Irvine.  It is in a light commercial area with several restaurants nearby, along with some shops, boat sales/service shops, and car dealerships (ahhhh.... Newport).  It is directly across the highway from an inlet of Newport Bay, but to get to the beach there is no crow-fly route.  If you like to walk, it's not bad, but not terribly scenic along the highway and part of the inlet.  The hotel itself is a low, two-story hotel with windows overlooking parking, regardless of room location so don't expect a view.   The exterior is unassuming, including points if entry/exit.  There is nothing luxurious or grandiose to wow you, but the exterior and simple grounds are well-maintained.  Once inside, everything is nice- contemporary furnishings in clean, comfortable spaces that work.  After a travel mess, we arrived after midnight and the front-desk attendant could not have been more helpful or pleasant.  We were in our room quickly and not long after, crashed in very comfortable beds with high-quality pillows/linens.  The room was a bit dated, but...Me, my wife and son stayed two nights at the Holiday Inn Express Newport Beach in July of 2018.  We had business in Irvine and pleasure on the beach so the Goldie Locks location was excellent.  The hotel is situated on Pacific Coast Highway (right where it splits into West Coast Highway) about two miles from the Newport Beach proper and maybe 15 minutes from John Wayne airport in Irvine.  It is in a light commercial area with several restaurants nearby, along with some shops, boat sales/service shops, and car dealerships (ahhhh.... Newport).  It is directly across the highway from an inlet of Newport Bay, but to get to the beach there is no crow-fly route.  If you like to walk, it's not bad, but not terribly scenic along the highway and part of the inlet.  The hotel itself is a low, two-story hotel with windows overlooking parking, regardless of room location so don't expect a view.   The exterior is unassuming, including points if entry/exit.  There is nothing luxurious or grandiose to wow you, but the exterior and simple grounds are well-maintained.  Once inside, everything is nice- contemporary furnishings in clean, comfortable spaces that work.  After a travel mess, we arrived after midnight and the front-desk attendant could not have been more helpful or pleasant.  We were in our room quickly and not long after, crashed in very comfortable beds with high-quality pillows/linens.  The room was a bit dated, but not bad.  Nothing looked worn and all spaces/furnishings were clean and everything worked.  We were far from the highway (about as far as one can get) so the room was quiet as well.  Breakfast was included with our room/deal and was actually pretty good.  Fresh foods were fresh, prepared foods were, well- prepared!  Selections were mostly formulaic, but solid.  Food staff were exceptionally efficient, professional and polite as was the new, daytime front desk attendant.  She was friendly and offered great local insight/advice for me and my son to play for the day while my wife worked (hah!).  The aforementioned parking was ample (a bonus in Newport).  Regardless of time we returned to the hotel, there were always good-sized available spaces.  Bottom line, temper your "Newport Beach expectations."  The hotel is not glitzy, glossy or sexy, nor does it tout itself as such. Close enough to the beach to be convenient, but far enough away to be affordable. It was clean, felt safe, with exceptionally professional staff. Great experience. Great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r615232743-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>615232743</t>
+  </si>
+  <si>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>Terrific Staff!</t>
+  </si>
+  <si>
+    <t>I was staying here with my husband after my knee surgery. The staff was absolutely terrific in helping us out by freezing my ice packs for me, lending us a wheel chair and just being accommodating in any way they could. It really was terrific. The breakfast area was nice and roomy. The staff in there were very helpful. The breakfast itself everyday was also wonderful to have, so we only had to purchase meals twice a day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>I was staying here with my husband after my knee surgery. The staff was absolutely terrific in helping us out by freezing my ice packs for me, lending us a wheel chair and just being accommodating in any way they could. It really was terrific. The breakfast area was nice and roomy. The staff in there were very helpful. The breakfast itself everyday was also wonderful to have, so we only had to purchase meals twice a day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r613660308-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>613660308</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Clean and new</t>
+  </si>
+  <si>
+    <t>Clean and new.  A little tricky to find, but in a very convenient location. The beds were comfortable and the room felt clean. I had totally forgot that they offered breakfast, so that was a nice surprise. MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Clean and new.  A little tricky to find, but in a very convenient location. The beds were comfortable and the room felt clean. I had totally forgot that they offered breakfast, so that was a nice surprise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r612209745-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>612209745</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Free nights</t>
+  </si>
+  <si>
+    <t>As a frequent business user of Holiday Inn and platinum member, I had collected enough points for a few free nights.  As part of our vacation visiting family and friends across California, I decided to use my points for a couple of nights at this hotel on Newport Beach.  On vacation we would normally stay at more expensive hotels (Hyatt Regency last time in this area) but I must say that the HI express was every bit as good and in some aspects even exceeded more expensive properties.  With the hotel being small I felt the staff gave a more personal touch from the reception to housekeeping.  No stupid resort fees ($15/night for parking only) and with no onsite restaurant it forced us to look for suitable dining experiences nearby of which there are plenty.  Although not directly on the beach this is a short 5 min drive to the expansive Newport and Balboa beaches. Would thoroughly recommend for a budget short break and will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>As a frequent business user of Holiday Inn and platinum member, I had collected enough points for a few free nights.  As part of our vacation visiting family and friends across California, I decided to use my points for a couple of nights at this hotel on Newport Beach.  On vacation we would normally stay at more expensive hotels (Hyatt Regency last time in this area) but I must say that the HI express was every bit as good and in some aspects even exceeded more expensive properties.  With the hotel being small I felt the staff gave a more personal touch from the reception to housekeeping.  No stupid resort fees ($15/night for parking only) and with no onsite restaurant it forced us to look for suitable dining experiences nearby of which there are plenty.  Although not directly on the beach this is a short 5 min drive to the expansive Newport and Balboa beaches. Would thoroughly recommend for a budget short break and will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r611611171-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>611611171</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Trash Left Behind</t>
+  </si>
+  <si>
+    <t>The room as very nice! It was located across the street where we needed to be... which was GREAT! The only bad thing I noticed was a wood skewer that was left behind next to the coffee maker. It was covered with food and it grossed me out!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The room as very nice! It was located across the street where we needed to be... which was GREAT! The only bad thing I noticed was a wood skewer that was left behind next to the coffee maker. It was covered with food and it grossed me out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r611273662-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>611273662</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>Its was great</t>
+  </si>
+  <si>
+    <t>Everything at the holiday inn was great. I even had a female emergency and they were able to help out. Thanks so much to the front desk. Breakfast was actual very good, actually had a great taste on plain eggs, then the omelette was amazing with its pepper inside of it 5 stars for me and at a hotel. Also I left my wallet and they contacted me as soon as they found it and sent it on it's way back to meMoreShow less</t>
+  </si>
+  <si>
+    <t>Everything at the holiday inn was great. I even had a female emergency and they were able to help out. Thanks so much to the front desk. Breakfast was actual very good, actually had a great taste on plain eggs, then the omelette was amazing with its pepper inside of it 5 stars for me and at a hotel. Also I left my wallet and they contacted me as soon as they found it and sent it on it's way back to meMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r608768966-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>608768966</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>loved the location, so close to bars,restaurants and the beach.  the staff was nice and let us have breakfast even though we missed the cut off time.  Rooms were nice and clean.  parking was good. lobby was nice it was newly renovated.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>loved the location, so close to bars,restaurants and the beach.  the staff was nice and let us have breakfast even though we missed the cut off time.  Rooms were nice and clean.  parking was good. lobby was nice it was newly renovated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r606392760-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>606392760</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Average Rooms</t>
+  </si>
+  <si>
+    <t>The rooms were not as bad. The rooms were ok and average. I think it should be a little better. My room wasn't ready and I watch 4 people check in and receive their key to go to their room. I didn't make it a big deal because their employees great customer service. So I didn't complain.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>The rooms were not as bad. The rooms were ok and average. I think it should be a little better. My room wasn't ready and I watch 4 people check in and receive their key to go to their room. I didn't make it a big deal because their employees great customer service. So I didn't complain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r603724845-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>603724845</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay and fantastic price</t>
+  </si>
+  <si>
+    <t>I had never stayed at a Holiday Inn Express before and I must say I was very pleased! The staff was very professional and helpful, the hotel was clean, rooms were comfortable. I will be back for another visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>I had never stayed at a Holiday Inn Express before and I must say I was very pleased! The staff was very professional and helpful, the hotel was clean, rooms were comfortable. I will be back for another visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r603678538-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>603678538</t>
+  </si>
+  <si>
+    <t>The best Holiday Inn I've ever stayed in</t>
+  </si>
+  <si>
+    <t>The gym is the best, the food is better than any hotels I've eaten at and most of all, the staff is excellent.They're very friendly, courteous and accommodating. The price can be a little less especially the room isn't much bigger than most. The only complaint I have isnwe have to pay for parking when guest parking should be provided.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The gym is the best, the food is better than any hotels I've eaten at and most of all, the staff is excellent.They're very friendly, courteous and accommodating. The price can be a little less especially the room isn't much bigger than most. The only complaint I have isnwe have to pay for parking when guest parking should be provided.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r601598072-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>601598072</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>We love this location - close the good restaurants, easy access to I-55, we will return.  close to Orange County Fair - water activities - airports and highways.  Staff was helpful - good breakfast selection - clean - wonderful staffMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded August 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2018</t>
+  </si>
+  <si>
+    <t>We love this location - close the good restaurants, easy access to I-55, we will return.  close to Orange County Fair - water activities - airports and highways.  Staff was helpful - good breakfast selection - clean - wonderful staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r600012051-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>600012051</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Great spot in Newport Beach</t>
+  </si>
+  <si>
+    <t>HIE thinks of everything for the business traveler. Great bed, productive workspace, nice TV, good breakfast. My room was close to the lobby but quiet. Location of hotel was nice, too. Only wish I had had more time to enjoy the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded July 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2018</t>
+  </si>
+  <si>
+    <t>HIE thinks of everything for the business traveler. Great bed, productive workspace, nice TV, good breakfast. My room was close to the lobby but quiet. Location of hotel was nice, too. Only wish I had had more time to enjoy the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r599911727-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>599911727</t>
+  </si>
+  <si>
+    <t>great beds</t>
+  </si>
+  <si>
+    <t>hotel clean and well stocked....but the best part were the beds...super soft and comfy with pillows the same...pool looked small but swimmable ocean was so close by, we had no interest using pool.  Lots of great restaurants and sights within walking distance but be ready to pay top dollar for quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>hotel clean and well stocked....but the best part were the beds...super soft and comfy with pillows the same...pool looked small but swimmable ocean was so close by, we had no interest using pool.  Lots of great restaurants and sights within walking distance but be ready to pay top dollar for quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r599415692-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>599415692</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Friendly Service</t>
+  </si>
+  <si>
+    <t>When I think of Holiday Inn Express I picture a 4 or 5 story building. Was surprised to see a standard 2 story building  in the middle of a block on the main road. A  2 1/2 ️ hotel. It is strange that a building with an elevator put you on a landing where you still had to get your luggage up and down four steps. The room was clean but dated. Bed was comfortable. Free breakfast is what you would expect. There is a pancake making machine instead of a waffle maker that many similar hotels have. The $15 parking charge is a joke. This is the new way to make extra money while offering a decent room rate. If it weren’t for the pleasant front desk this would be a three not a four hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, Front Office Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded July 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2018</t>
+  </si>
+  <si>
+    <t>When I think of Holiday Inn Express I picture a 4 or 5 story building. Was surprised to see a standard 2 story building  in the middle of a block on the main road. A  2 1/2 ️ hotel. It is strange that a building with an elevator put you on a landing where you still had to get your luggage up and down four steps. The room was clean but dated. Bed was comfortable. Free breakfast is what you would expect. There is a pancake making machine instead of a waffle maker that many similar hotels have. The $15 parking charge is a joke. This is the new way to make extra money while offering a decent room rate. If it weren’t for the pleasant front desk this would be a three not a four hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r595653328-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>595653328</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Get what you get</t>
+  </si>
+  <si>
+    <t>The Rooms are small and dated in their furnishings. The staff was very polite, which helps. Sadly the parking was $15 a car and price was more than value even before charging $15 for an open parking lot. MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
+  </si>
+  <si>
+    <t>The Rooms are small and dated in their furnishings. The staff was very polite, which helps. Sadly the parking was $15 a car and price was more than value even before charging $15 for an open parking lot. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r593389873-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>593389873</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Clean, affordable</t>
+  </si>
+  <si>
+    <t>This hotel is clean, comfortable and affordable. No minimum stay required before the 4th of July.  Front desk clerks were nice.  A hot breakfast with many options was included.  Refrigerator and microwave in the room were also clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is clean, comfortable and affordable. No minimum stay required before the 4th of July.  Front desk clerks were nice.  A hot breakfast with many options was included.  Refrigerator and microwave in the room were also clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r584436923-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>584436923</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Clean, comfy hotel</t>
+  </si>
+  <si>
+    <t>This hotel, our room included, was very clean. The beds and pillows were comfortable. Having a microwave and fridge in room came in handy. The pool and spa were nice, except one jet was broken in the spa. Same breakfast choices all four days in a row got a bit boring. Being close to the harbor, and in walking distance to some shops and restaurants, was nice. All employees we encountered were very friendly. Overall, this was a good value for our money and I'm glad we chose to stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>This hotel, our room included, was very clean. The beds and pillows were comfortable. Having a microwave and fridge in room came in handy. The pool and spa were nice, except one jet was broken in the spa. Same breakfast choices all four days in a row got a bit boring. Being close to the harbor, and in walking distance to some shops and restaurants, was nice. All employees we encountered were very friendly. Overall, this was a good value for our money and I'm glad we chose to stay here. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r584380753-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
-    <t>32780</t>
-  </si>
-  <si>
-    <t>78639</t>
-  </si>
-  <si>
     <t>584380753</t>
   </si>
   <si>
-    <t>06/01/2018</t>
-  </si>
-  <si>
     <t>Lion Materials LLC</t>
   </si>
   <si>
     <t>Over all great services ..The room was very comfortable and all employees were very pleasant and accomidating .Great resturant opened next door ... Go see Joe!!!  He is the manager..  @ Rocks.Bar and Grill..</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>mawrtermom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r582439037-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -201,12 +687,6 @@
     <t>Hubs and I checked in and were delighted to be offer an upgrade to a roomy suite, with a huge TV, because of my gold IHG status. Very comfortable, could enjoy the TV from sofa or bed.  Wonderful breakfast, overseen and prepared by Lorena. Tempted to try the inviting- looking gym, but not yet! Desk clerk could not have been nicer, reccommending a friendly neighborhood Italian restaurant, which we could walk to, and had delicious pizza.All good!</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>U6802EDdannyr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r582254622-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -225,7 +705,34 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Michael T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r582135717-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>582135717</t>
+  </si>
+  <si>
+    <t>Excellent value and location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Holiday Inn Express was very well kept. Staff excellent. My room was very clean and fresh and the air conditioning worked perfectly. There was a small bench in back for smokers, and while not scenic at least there was a place to sit and smoke a cigar. Not every motel has that these days. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r577633550-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>577633550</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Its right on PCH but it is quiet. Front desk help was great. Rooms are very clean and basic as well as bathrooms. Beds comfortable but the pillows are perfect! Breakfast area was clean and stocked. All in all a nice place</t>
+  </si>
+  <si>
+    <t>April 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r576596575-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
@@ -243,12 +750,6 @@
     <t>I have been an elite IHG member for several years now. I've stayed at my share of Holiday Inn Express products across the country. The front desk staff were very kind and professional. The rooms were standard issue and did not stick out in anyway other than being unnaturally humid when the A/C was not on. Since I live in Florida it's really hard to get me to notice humidity, and I grew up in Newport Beach so I was on familiar ground. The breakfast offering was limited and I've been to plenty of Express properties with more extensive offerings. Overall it was ho-hum. Nothing wonderful but nothing overtly offensive either..MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded May 13, 2018</t>
   </si>
   <si>
@@ -258,9 +759,6 @@
     <t>I have been an elite IHG member for several years now. I've stayed at my share of Holiday Inn Express products across the country. The front desk staff were very kind and professional. The rooms were standard issue and did not stick out in anyway other than being unnaturally humid when the A/C was not on. Since I live in Florida it's really hard to get me to notice humidity, and I grew up in Newport Beach so I was on familiar ground. The breakfast offering was limited and I've been to plenty of Express properties with more extensive offerings. Overall it was ho-hum. Nothing wonderful but nothing overtly offensive either..More</t>
   </si>
   <si>
-    <t>TimpanzeeUK</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r575502472-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -276,9 +774,6 @@
     <t>Had a great stay at the Holiday Inn Express - amazing price and location. The gym was really good for a H.I (cables and free weights alongside usual cardio) Special shout out to the team behind the desk, very friendly and approachable. Kenzie in particular was incredibly helpful and patient with me when helping with a couple of payment issues. They also helped me understand how to do laundry in the US. Cheers guys, will definitely come back!</t>
   </si>
   <si>
-    <t>artissmith</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r574051610-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -294,7 +789,40 @@
     <t xml:space="preserve">Excellent Place to stay and work! I would recommend this place to anyone...Price was just right restaurant served the freshest foods and the service was excellent. Room service was on time and service was great </t>
   </si>
   <si>
-    <t>Jaye M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r573938353-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>573938353</t>
+  </si>
+  <si>
+    <t>Great inexpensive local stay</t>
+  </si>
+  <si>
+    <t>Room was clean, staff was very friendly, breakfast was really good, lots of places to eat within walking distance. If you need a place to rest up for the night, weekend, or even a whole week; this is a great choice!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r573860213-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>573860213</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Nothing special here</t>
+  </si>
+  <si>
+    <t>Hate paying for parking when you visit these resort towns. They should issue stickers so hotel residents don't have to pay for parking. Location is not very good as it is across from Marina and not the beach. Each morning we noted during the breakfast that the pancake maker had a sign on it, MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Hate paying for parking when you visit these resort towns. They should issue stickers so hotel residents don't have to pay for parking. Location is not very good as it is across from Marina and not the beach. Each morning we noted during the breakfast that the pancake maker had a sign on it, More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r573855848-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
@@ -303,24 +831,15 @@
     <t>573855848</t>
   </si>
   <si>
-    <t>04/16/2018</t>
-  </si>
-  <si>
     <t>Very Nice Hotel, Great Location</t>
   </si>
   <si>
     <t>The staff was very friendly and helpful. The location of the Hotel is perfect for a visit to Newport Beach and the rates were very reasonable. The breakfast options were excellent and the staff in the breakfast area were helpful and very friendly. The wifi is not secure. No password is required to login, so plan on using a VPN service if you plan to use the wifi. The Hotel charges for parking which was a disappointment. The room was in good condition but not great which is why I only give it 4 stars. For example, the shower curtain was torn at both ends and looked pretty bad. This would seem to be a cheap and easy thing to fix. There were some stray hairs left from the previous guest in the tub and on the toilet which was pretty unpleasant.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>The staff was very friendly and helpful. The location of the Hotel is perfect for a visit to Newport Beach and the rates were very reasonable. The breakfast options were excellent and the staff in the breakfast area were helpful and very friendly. The wifi is not secure. No password is required to login, so plan on using a VPN service if you plan to use the wifi. The Hotel charges for parking which was a disappointment. The room was in good condition but not great which is why I only give it 4 stars. For example, the shower curtain was torn at both ends and looked pretty bad. This would seem to be a cheap and easy thing to fix. There were some stray hairs left from the previous guest in the tub and on the toilet which was pretty unpleasant.More</t>
   </si>
   <si>
-    <t>mikewilliswoodwo2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r572678740-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -345,9 +864,6 @@
     <t>Beware they charge an extra $15 a night for parking. Something that was not advertised when making the reservation. Ridiculous as there is plenty of parking available. If I am paying for a room at a motel parking should included. More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r571710617-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -363,7 +879,43 @@
     <t xml:space="preserve">Excellent service from Arturo at the front desk &amp; Petra from housekeeping. Also breakfast service was great, but I didn’t get her name. Rooms were nice &amp; lobby area very clean. If we visit Newport again, will definitely book here. </t>
   </si>
   <si>
-    <t>scottm2016</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r570948204-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>570948204</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>Room appeared to be newly refurbished. Parking was fine. No gluten free options available other than fruit which was disappointing. At other Holiday Inn Express hotels there has been at least a GF Bagel on offer.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Room appeared to be newly refurbished. Parking was fine. No gluten free options available other than fruit which was disappointing. At other Holiday Inn Express hotels there has been at least a GF Bagel on offer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r570900328-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>570900328</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Thank You- Best Service In A Long Time.</t>
+  </si>
+  <si>
+    <t>I was very happy with the service we received, from the time we checked in and throughout our stay. The young man who checked us in, provided us with a list of good restaurants around the area. He was spot on! In addition, very clean and friendly staff- Yes We Will Be Back!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r570897321-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
@@ -372,30 +924,15 @@
     <t>570897321</t>
   </si>
   <si>
-    <t>04/03/2018</t>
-  </si>
-  <si>
     <t>Newport Beach Weekend</t>
   </si>
   <si>
     <t>The bed was comfortable, but the vent in the bathroom was filthy dirty.  The noise was horrible Saturday evening long into the 3:00 AM hours.   The front desk people were very nice, breakfast was good and we had clean towels every day.  MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded April 18, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 18, 2018</t>
-  </si>
-  <si>
     <t>The bed was comfortable, but the vent in the bathroom was filthy dirty.  The noise was horrible Saturday evening long into the 3:00 AM hours.   The front desk people were very nice, breakfast was good and we had clean towels every day.  More</t>
   </si>
   <si>
-    <t>dkupitz2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r570736589-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -408,9 +945,6 @@
     <t>What a beautiful place to stay.  They had remodeled the lobby and breakfast area with a more contemporary vibe.  Very nice! Front desk personnel very friendly and helpful. Will definitely stay there again when we are back in the area.</t>
   </si>
   <si>
-    <t>BMLIreland</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r568723161-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -426,7 +960,55 @@
     <t>Had a lovely 2 night stay in March. Arrived early evening and easy check in, close to all facilities and opposite the marina, lovely clean rooms, customer service excellent, spacious rooms, good facilities and beds very comfortable.</t>
   </si>
   <si>
-    <t>joelgoods</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r567784291-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>567784291</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean and centrally located.  The staff was very informative and helpful. They gave us tips and directions to local attractions.  The advice they gave was very appreciated.  We were only there for two days but it was nice to have a safe, clean hotel to return to. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r567367594-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>567367594</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
+  <si>
+    <t>Don't understand previous poor reviews.This is a great hotel. It is well located on PCH opposite marina and easily found.The check in was excellent, seamless and friendly.Joseph was particularly helpful as was the head of housekeeping, friendly and accommodating.It is spotlessly clean, the room was great and we were given a quiet room away from lift and road as requested.Ample parking at $15 per day, beware.The room is great with 2 queen beds and spacious and well equipped with modern coffee machine, fridge and micro.The pool is warm, the spa is hot and a nice cabana. But its right by the car park and not as big as the photos make it appear. Plenty of poolside towels.The breakfast and room are fabulous with non stop coffee etc. and free USA today. There are plenty of snacks and supplies for business and leisure guests Miriam was super efficient and kind.. It seems a 50/50 split of travellers, there were several families and couples.Plenty of walkable restaurants and easy drive to pier and shops at Huntington.This is a fabulous, smart hotel and highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Don't understand previous poor reviews.This is a great hotel. It is well located on PCH opposite marina and easily found.The check in was excellent, seamless and friendly.Joseph was particularly helpful as was the head of housekeeping, friendly and accommodating.It is spotlessly clean, the room was great and we were given a quiet room away from lift and road as requested.Ample parking at $15 per day, beware.The room is great with 2 queen beds and spacious and well equipped with modern coffee machine, fridge and micro.The pool is warm, the spa is hot and a nice cabana. But its right by the car park and not as big as the photos make it appear. Plenty of poolside towels.The breakfast and room are fabulous with non stop coffee etc. and free USA today. There are plenty of snacks and supplies for business and leisure guests Miriam was super efficient and kind.. It seems a 50/50 split of travellers, there were several families and couples.Plenty of walkable restaurants and easy drive to pier and shops at Huntington.This is a fabulous, smart hotel and highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r566443853-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>566443853</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Good facilities and location</t>
+  </si>
+  <si>
+    <t>Friendly staff, good breakfast. Room was very clean and comfortable, even though the windows faced the parking lot. There is a $15 parking fee. Fast WiFi and convenient access to the beach and Fashion Island.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r566389429-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
@@ -444,9 +1026,6 @@
     <t>Stayed for 3 nights for a wedding nearby. The room smelled a little bit when we got there but it wasn't so bad to switch. I had booked a king bed but all they had were 2 double beds, not a huge deal. Nice new lobby and breakfast included (although the breakfast was pretty sub par). Pool was alright but a lot of kids which I would expect at a Holiday Inn Express. Good location of PCH, short drive or a 15-20 minute walk to Newport Beach.  Didn't know parking was $15 a night until I got there either. Good restaurants nearby as well. MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded March 28, 2018</t>
   </si>
   <si>
@@ -456,9 +1035,6 @@
     <t>Stayed for 3 nights for a wedding nearby. The room smelled a little bit when we got there but it wasn't so bad to switch. I had booked a king bed but all they had were 2 double beds, not a huge deal. Nice new lobby and breakfast included (although the breakfast was pretty sub par). Pool was alright but a lot of kids which I would expect at a Holiday Inn Express. Good location of PCH, short drive or a 15-20 minute walk to Newport Beach.  Didn't know parking was $15 a night until I got there either. Good restaurants nearby as well. More</t>
   </si>
   <si>
-    <t>ryandanks</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r566350682-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -471,9 +1047,6 @@
     <t>I expected much less. Being from Las Vegas, other cities just don't have hotels that match up to my expectations. This place proved me wrong. Its look and amenities felt like a boutique 4 star hotel. It was one of the best parts of the trip.</t>
   </si>
   <si>
-    <t>AMH36703</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r566350075-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -486,7 +1059,36 @@
     <t xml:space="preserve">I loved the hotel. It had a great location with a beautiful bay view. Breakfast varied each morning and it was always hot and delicious. Room was very spacious and the bed was rather comfortable. I would definitely stay here again. </t>
   </si>
   <si>
-    <t>jbrenz</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r565475127-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>565475127</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>Warning! Theft in our room.</t>
+  </si>
+  <si>
+    <t>I prefer to write good reviews or no reviews. I felt compelled to write this review to help others. First, let me start with the good stuff...the hotel has all the things you like in a Holiday Inn Express...free breakfast, small inn, courteous staff, clean and within walking distance of restaurants. On our first morning there, someone entered our room and took my credit and debit card out of my small passport bag, which was zipped up inside my backpack. They did not take our laptop or touch anything else, however, an additional waste container was in the room, placed on the floor, next to my suitcase This occurred while we were out on a run and breakfast. The thief handed my credit and debit cards off to someone and within a couple of hours, they had racked up approximately $20,000 in purchases at nearby upscale stores. We notified the front desk. They were professional, but not helpful. A call to IHG HQ assured us they would require the hotel to investigate and they would follow up with us. When we left our room that morning, we noticed two ladies cleaning rooms and a uniformed repairman in the hall. All three of them looked at us as we departed.
+For the last 2 days of our visit, we declined any room servicing and took our laptop, kindle and prescriptions with us in a backpack whenever we left the room.The following...I prefer to write good reviews or no reviews. I felt compelled to write this review to help others. First, let me start with the good stuff...the hotel has all the things you like in a Holiday Inn Express...free breakfast, small inn, courteous staff, clean and within walking distance of restaurants. On our first morning there, someone entered our room and took my credit and debit card out of my small passport bag, which was zipped up inside my backpack. They did not take our laptop or touch anything else, however, an additional waste container was in the room, placed on the floor, next to my suitcase This occurred while we were out on a run and breakfast. The thief handed my credit and debit cards off to someone and within a couple of hours, they had racked up approximately $20,000 in purchases at nearby upscale stores. We notified the front desk. They were professional, but not helpful. A call to IHG HQ assured us they would require the hotel to investigate and they would follow up with us. When we left our room that morning, we noticed two ladies cleaning rooms and a uniformed repairman in the hall. All three of them looked at us as we departed.For the last 2 days of our visit, we declined any room servicing and took our laptop, kindle and prescriptions with us in a backpack whenever we left the room.The following day, we dined with local friends, who informed us, they had both been victims of credit card fraud. This may be a problem in California, but we will never stay at this IHG location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I prefer to write good reviews or no reviews. I felt compelled to write this review to help others. First, let me start with the good stuff...the hotel has all the things you like in a Holiday Inn Express...free breakfast, small inn, courteous staff, clean and within walking distance of restaurants. On our first morning there, someone entered our room and took my credit and debit card out of my small passport bag, which was zipped up inside my backpack. They did not take our laptop or touch anything else, however, an additional waste container was in the room, placed on the floor, next to my suitcase This occurred while we were out on a run and breakfast. The thief handed my credit and debit cards off to someone and within a couple of hours, they had racked up approximately $20,000 in purchases at nearby upscale stores. We notified the front desk. They were professional, but not helpful. A call to IHG HQ assured us they would require the hotel to investigate and they would follow up with us. When we left our room that morning, we noticed two ladies cleaning rooms and a uniformed repairman in the hall. All three of them looked at us as we departed.
+For the last 2 days of our visit, we declined any room servicing and took our laptop, kindle and prescriptions with us in a backpack whenever we left the room.The following...I prefer to write good reviews or no reviews. I felt compelled to write this review to help others. First, let me start with the good stuff...the hotel has all the things you like in a Holiday Inn Express...free breakfast, small inn, courteous staff, clean and within walking distance of restaurants. On our first morning there, someone entered our room and took my credit and debit card out of my small passport bag, which was zipped up inside my backpack. They did not take our laptop or touch anything else, however, an additional waste container was in the room, placed on the floor, next to my suitcase This occurred while we were out on a run and breakfast. The thief handed my credit and debit cards off to someone and within a couple of hours, they had racked up approximately $20,000 in purchases at nearby upscale stores. We notified the front desk. They were professional, but not helpful. A call to IHG HQ assured us they would require the hotel to investigate and they would follow up with us. When we left our room that morning, we noticed two ladies cleaning rooms and a uniformed repairman in the hall. All three of them looked at us as we departed.For the last 2 days of our visit, we declined any room servicing and took our laptop, kindle and prescriptions with us in a backpack whenever we left the room.The following day, we dined with local friends, who informed us, they had both been victims of credit card fraud. This may be a problem in California, but we will never stay at this IHG location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r565471665-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>565471665</t>
+  </si>
+  <si>
+    <t>Low Key Hotel in Newport Beach</t>
+  </si>
+  <si>
+    <t>Nice and comfortable hotel in Newport Beach. Staff is very friendly, gym is adequate, and you are a two minute walk from a Starbucks. 20 minute Uber ride to Irvine and much more affordable than those hotels. Next door is a nice sports bar/Mexican restaurant.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r562347119-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
@@ -510,9 +1112,6 @@
     <t>What a great stay!  The front desk staff was very helpful.  I didn't have a car and I told the girl at the front desk that I needed a cab for the next day at 8:30am.  She said that they work with a company and the cab was there next day ready and waiting for me.  Hotel was very personable and it was a great stay and a great room.  My room was amazing as it was a 2 room suite.  Only issue that happened was the power went out one night and according to some locals, it happens a lot in that area of Newport Beach.  Having a 2 room suite, I had 2 bathrooms.  The ADA bathroom was nice and big with a tall toilet, but the shower was horrible...no pressure at all.  The regular bathroom, the toilet was low, but the shower pressure was great.  Breakfast was satisfactory, stay was very comfortable, and the staff was a great help.  Can't beat that!More</t>
   </si>
   <si>
-    <t>farrier126</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r561616226-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -537,9 +1136,6 @@
     <t>Ok the rooms are small. It was the most uncomfortable bed I have ever slept in a hotel room.Period. They are way high and sink you in a deep crevice that is very hard to roll out of.When I booked online, I booked for a "bay view" room. What I got was parking lot view. I asked the front desk guy, his answer was "we try to accommodate as much as we can". I made the booking about a month in advance.when I booked I specifically looked to see if they charge for parking. There was nothing to that effect. When I check in, they had a rubber stamp on the sign up paper that they were going to charge 15 dollars per night. They don't tell you that upfront but mention in small (i mean very small) letter in the confirmation, AFTER YOU HAVE MADE THE RESERVATION.The elevators are in the middle of a whole bunch of rooms like ours, and it is hell noisy through out the night.Would not recommend it.More</t>
   </si>
   <si>
-    <t>Tanya L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r556571193-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -555,7 +1151,52 @@
     <t>Wanted to get away and spend some quality time with my mom.  She loved it and I did too. We both were sad to leave and we live close.  Super helpful and friendly staff. Nice selection for breakfast. Super close to the beach(quick drive or 10 min walk)  and lots of restaurants.  Easy drive to Fashion Island or hikes st Back Bay and easy parking.  Will definitely stay again.</t>
   </si>
   <si>
-    <t>doggystravels</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r556355699-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>556355699</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Nice small place in nice location, but watch your rate: does not include a $15 parking charge</t>
+  </si>
+  <si>
+    <t>Renovated not too long ago-nice property. However, they feature an add on charge that should not be there: a parking charge is carefully buried off to the side on the ihg web site. There's no resort, no rented city garage, no reason to add a parking fee, but they do (because they can fool you into thinking their rates are $15 lower). It's the same scam that Vegas resorts do by forcing you to pay their resort fees because there is no alternative.No one visits this area w/o a car. Just a heads up.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Renovated not too long ago-nice property. However, they feature an add on charge that should not be there: a parking charge is carefully buried off to the side on the ihg web site. There's no resort, no rented city garage, no reason to add a parking fee, but they do (because they can fool you into thinking their rates are $15 lower). It's the same scam that Vegas resorts do by forcing you to pay their resort fees because there is no alternative.No one visits this area w/o a car. Just a heads up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r555895979-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>555895979</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Heartless</t>
+  </si>
+  <si>
+    <t>My husband and I were booked at the Holiday Inn Express Newport  Beach for a business meeting nearby.  We had a family emergency and were not able to travel. Both airlines we had booked with provided us a full refund, This hotel charged us a full night stay even though we cancelled with more than 24 hour notice.  I would not recommend this hotel and I am very disappointed in their policy being so stringent that they don't even make accommodations for a family tragedy.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I were booked at the Holiday Inn Express Newport  Beach for a business meeting nearby.  We had a family emergency and were not able to travel. Both airlines we had booked with provided us a full refund, This hotel charged us a full night stay even though we cancelled with more than 24 hour notice.  I would not recommend this hotel and I am very disappointed in their policy being so stringent that they don't even make accommodations for a family tragedy.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r555482717-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
@@ -582,9 +1223,6 @@
     <t>Chose the Holiday Inn because my wife and I were spending the day in Newport and wanted a place nearby to spend the night.  Knowing we weren't going to spend much time in the room, we didn't want to spend a bunch of money.  Most hotels in the area are greatly overpriced.  The Holiday Inn was reasonably priced given it did include breakfast.  However, we did find out at check in that they charge for parking, which for an unsecured ground floor parking lot is just irritating.  The good news is they don't charge a ridiculous parking fee like you will find around Fashion Island.  As for the hotel it was clean and well kept.  We were on the first floor and it did get a bit noisy from the restaurant next door, but after a while it quieted down.More</t>
   </si>
   <si>
-    <t>eddo1955</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r544704092-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -603,9 +1241,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t>Blur_78</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r543063588-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -631,6 +1266,30 @@
   </si>
   <si>
     <t>Ok, I choose this hotel because it had free parking, which was true. Very limited space though. When I stayed there were going some renovations and room had a strange smell, like chemicals. Room was a good size but furniture felt old. Overall didn't experienced any problem but the lack of space in the breakfast room one of the days...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78639-r542299161-Holiday_Inn_Express_Newport_Beach-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>542299161</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Good size room but noisy</t>
+  </si>
+  <si>
+    <t>Good points;Decent size room with 2 good sized comfortable beds. Shower good too. Reception staff helpful.Lots of parking.Good restaurants on other side of freewayBad points;Paper thin walls so you can hear TV and every conversationBreakfast very limited (but this might be the same with all Expresses)Motel layout so can hear people parking and doors being lockedOK but not great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lynsey M, General Manager at Holiday Inn Express Newport Beach, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Good points;Decent size room with 2 good sized comfortable beds. Shower good too. Reception staff helpful.Lots of parking.Good restaurants on other side of freewayBad points;Paper thin walls so you can hear TV and every conversationBreakfast very limited (but this might be the same with all Expresses)Motel layout so can hear people parking and doors being lockedOK but not great.More</t>
   </si>
 </sst>
 </file>
@@ -1135,113 +1794,109 @@
       <c r="A2" t="n">
         <v>32174</v>
       </c>
-      <c r="B2" t="n">
-        <v>192602</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32174</v>
       </c>
-      <c r="B3" t="n">
-        <v>192603</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
@@ -1251,57 +1906,57 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32174</v>
       </c>
-      <c r="B4" t="n">
-        <v>192604</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1312,128 +1967,118 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32174</v>
       </c>
-      <c r="B5" t="n">
-        <v>14469</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32174</v>
       </c>
-      <c r="B6" t="n">
-        <v>192605</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1444,42 +2089,42 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32174</v>
       </c>
-      <c r="B7" t="n">
-        <v>192606</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
         <v>90</v>
@@ -1488,13 +2133,13 @@
         <v>91</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1505,36 +2150,36 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32174</v>
       </c>
-      <c r="B8" t="n">
-        <v>192607</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>94</v>
@@ -1549,53 +2194,59 @@
         <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32174</v>
       </c>
-      <c r="B9" t="n">
-        <v>192608</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
         <v>102</v>
@@ -1610,13 +2261,13 @@
         <v>105</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1641,47 +2292,43 @@
       <c r="A10" t="n">
         <v>32174</v>
       </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>110</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>111</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>112</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>113</v>
-      </c>
-      <c r="L10" t="s">
-        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1692,8 +2339,12 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
       <c r="Y10" t="s">
         <v>114</v>
       </c>
@@ -1702,47 +2353,43 @@
       <c r="A11" t="n">
         <v>32174</v>
       </c>
-      <c r="B11" t="n">
-        <v>192609</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>117</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>118</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>119</v>
       </c>
-      <c r="L11" t="s">
-        <v>120</v>
-      </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1754,60 +2401,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
         <v>122</v>
-      </c>
-      <c r="X11" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32174</v>
       </c>
-      <c r="B12" t="n">
-        <v>192610</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
         <v>126</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>127</v>
-      </c>
-      <c r="J12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" t="s">
-        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1818,122 +2461,124 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32174</v>
       </c>
-      <c r="B13" t="n">
-        <v>192611</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
         <v>131</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>132</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>133</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>134</v>
       </c>
-      <c r="L13" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32174</v>
       </c>
-      <c r="B14" t="n">
-        <v>192612</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1958,32 +2603,28 @@
       <c r="A15" t="n">
         <v>32174</v>
       </c>
-      <c r="B15" t="n">
-        <v>192613</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>147</v>
       </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>148</v>
-      </c>
-      <c r="J15" t="s">
-        <v>139</v>
       </c>
       <c r="K15" t="s">
         <v>149</v>
@@ -1995,10 +2636,10 @@
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2009,57 +2650,57 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32174</v>
       </c>
-      <c r="B16" t="n">
-        <v>192614</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2070,180 +2711,164 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32174</v>
       </c>
-      <c r="B17" t="n">
-        <v>192615</v>
-      </c>
-      <c r="C17" t="s">
-        <v>156</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32174</v>
       </c>
-      <c r="B18" t="n">
-        <v>192616</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32174</v>
       </c>
-      <c r="B19" t="n">
-        <v>101441</v>
-      </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
         <v>177</v>
@@ -2255,10 +2880,10 @@
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2269,36 +2894,36 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>173</v>
+      </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32174</v>
       </c>
-      <c r="B20" t="n">
-        <v>66421</v>
-      </c>
-      <c r="C20" t="s">
-        <v>179</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
         <v>181</v>
@@ -2313,26 +2938,20 @@
         <v>184</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
@@ -2350,47 +2969,43 @@
       <c r="A21" t="n">
         <v>32174</v>
       </c>
-      <c r="B21" t="n">
-        <v>192617</v>
-      </c>
-      <c r="C21" t="s">
-        <v>188</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
         <v>189</v>
       </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>190</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>191</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>192</v>
       </c>
-      <c r="L21" t="s">
-        <v>193</v>
-      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2401,36 +3016,36 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32174</v>
       </c>
-      <c r="B22" t="n">
-        <v>192618</v>
-      </c>
-      <c r="C22" t="s">
-        <v>195</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
         <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
         <v>197</v>
@@ -2445,37 +3060,2189 @@
         <v>200</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>201</v>
+      </c>
+      <c r="X22" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="n">
         <v>4</v>
       </c>
-      <c r="S22" t="n">
+      <c r="N23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>209</v>
+      </c>
+      <c r="X23" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>163</v>
+      </c>
+      <c r="O26" t="s">
+        <v>226</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="n">
         <v>3</v>
       </c>
-      <c r="T22" t="s"/>
-      <c r="U22" t="n">
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
         <v>4</v>
       </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
-        <v>202</v>
-      </c>
-      <c r="X22" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>204</v>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>242</v>
+      </c>
+      <c r="X29" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" t="s">
+        <v>258</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O32" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>264</v>
+      </c>
+      <c r="X33" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>236</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" t="s">
+        <v>274</v>
+      </c>
+      <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s">
+        <v>276</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>277</v>
+      </c>
+      <c r="X35" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>281</v>
+      </c>
+      <c r="J36" t="s">
+        <v>282</v>
+      </c>
+      <c r="K36" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s">
+        <v>284</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>236</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>134</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>290</v>
+      </c>
+      <c r="X37" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>236</v>
+      </c>
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>299</v>
+      </c>
+      <c r="J39" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>134</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>290</v>
+      </c>
+      <c r="X39" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" t="s">
+        <v>295</v>
+      </c>
+      <c r="K40" t="s">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s">
+        <v>306</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>134</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>308</v>
+      </c>
+      <c r="J41" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" t="s">
+        <v>310</v>
+      </c>
+      <c r="L41" t="s">
+        <v>311</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>134</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" t="s">
+        <v>314</v>
+      </c>
+      <c r="K42" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>317</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>325</v>
+      </c>
+      <c r="J44" t="s">
+        <v>326</v>
+      </c>
+      <c r="K44" t="s">
+        <v>327</v>
+      </c>
+      <c r="L44" t="s">
+        <v>328</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>317</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>329</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>330</v>
+      </c>
+      <c r="J45" t="s">
+        <v>331</v>
+      </c>
+      <c r="K45" t="s">
+        <v>332</v>
+      </c>
+      <c r="L45" t="s">
+        <v>333</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>317</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>334</v>
+      </c>
+      <c r="X45" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>338</v>
+      </c>
+      <c r="J46" t="s">
+        <v>331</v>
+      </c>
+      <c r="K46" t="s">
+        <v>339</v>
+      </c>
+      <c r="L46" t="s">
+        <v>340</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>317</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>341</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>342</v>
+      </c>
+      <c r="J47" t="s">
+        <v>331</v>
+      </c>
+      <c r="K47" t="s">
+        <v>343</v>
+      </c>
+      <c r="L47" t="s">
+        <v>344</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>317</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>345</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>346</v>
+      </c>
+      <c r="J48" t="s">
+        <v>347</v>
+      </c>
+      <c r="K48" t="s">
+        <v>348</v>
+      </c>
+      <c r="L48" t="s">
+        <v>349</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>134</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>352</v>
+      </c>
+      <c r="J49" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" t="s">
+        <v>353</v>
+      </c>
+      <c r="L49" t="s">
+        <v>354</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>134</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" t="s">
+        <v>357</v>
+      </c>
+      <c r="K50" t="s">
+        <v>358</v>
+      </c>
+      <c r="L50" t="s">
+        <v>359</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>360</v>
+      </c>
+      <c r="O50" t="s">
+        <v>226</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>362</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>363</v>
+      </c>
+      <c r="J51" t="s">
+        <v>364</v>
+      </c>
+      <c r="K51" t="s">
+        <v>365</v>
+      </c>
+      <c r="L51" t="s">
+        <v>366</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>317</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>367</v>
+      </c>
+      <c r="X51" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>370</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>371</v>
+      </c>
+      <c r="J52" t="s">
+        <v>372</v>
+      </c>
+      <c r="K52" t="s">
+        <v>373</v>
+      </c>
+      <c r="L52" t="s">
+        <v>374</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>360</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>376</v>
+      </c>
+      <c r="J53" t="s">
+        <v>377</v>
+      </c>
+      <c r="K53" t="s">
+        <v>378</v>
+      </c>
+      <c r="L53" t="s">
+        <v>379</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>360</v>
+      </c>
+      <c r="O53" t="s">
+        <v>226</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>380</v>
+      </c>
+      <c r="X53" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" t="s">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s">
+        <v>386</v>
+      </c>
+      <c r="L54" t="s">
+        <v>387</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>360</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>388</v>
+      </c>
+      <c r="X54" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>392</v>
+      </c>
+      <c r="J55" t="s">
+        <v>393</v>
+      </c>
+      <c r="K55" t="s">
+        <v>394</v>
+      </c>
+      <c r="L55" t="s">
+        <v>395</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>360</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>396</v>
+      </c>
+      <c r="X55" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>399</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>400</v>
+      </c>
+      <c r="J56" t="s">
+        <v>401</v>
+      </c>
+      <c r="K56" t="s">
+        <v>402</v>
+      </c>
+      <c r="L56" t="s">
+        <v>403</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>404</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>405</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>406</v>
+      </c>
+      <c r="J57" t="s">
+        <v>407</v>
+      </c>
+      <c r="K57" t="s">
+        <v>408</v>
+      </c>
+      <c r="L57" t="s">
+        <v>409</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>410</v>
+      </c>
+      <c r="O57" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>411</v>
+      </c>
+      <c r="X57" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>414</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K58" t="s">
+        <v>417</v>
+      </c>
+      <c r="L58" t="s">
+        <v>418</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>410</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>419</v>
+      </c>
+      <c r="X58" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
